--- a/data/trans_bre/P16A04-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A04-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.238111287963662</v>
+        <v>-1.960987662843208</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.495348354341012</v>
+        <v>-2.366017398465211</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.1722297601713545</v>
+        <v>-0.03537314005234446</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.8874702718427161</v>
+        <v>-1.311106236697114</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5327168502377644</v>
+        <v>-0.5030918864684362</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5356476446969789</v>
+        <v>-0.5354193467645707</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1145232005521084</v>
+        <v>-0.0844876071216063</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1886199913043063</v>
+        <v>-0.2427949112826562</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7215950328717765</v>
+        <v>0.876197971264314</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6697235879926322</v>
+        <v>0.6763412498676765</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.278304623796077</v>
+        <v>2.403288465874292</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.868780293246755</v>
+        <v>3.06941767435464</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3174680411744671</v>
+        <v>0.3969213860426024</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2691039112101818</v>
+        <v>0.2955090250164478</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.40337008038993</v>
+        <v>3.050358000885304</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.158340650058754</v>
+        <v>1.1577331699126</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.1295829091092771</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5408870974737505</v>
+        <v>0.5408870974737502</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7286324985018563</v>
@@ -749,7 +749,7 @@
         <v>-0.05892046923568618</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.229279097397191</v>
+        <v>0.2292790973971909</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04180417127803187</v>
+        <v>0.0177119181217376</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.5790612441374242</v>
+        <v>-0.6115954689940677</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.055294978003802</v>
+        <v>-1.004726551392855</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.4724181670834598</v>
+        <v>-0.4012188808292662</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01954443558220777</v>
+        <v>0.003276684356578368</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1815981681240073</v>
+        <v>-0.1781469493701105</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3829936158848287</v>
+        <v>-0.3894719340429076</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1641527780074278</v>
+        <v>-0.1568988785093859</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.931281468594883</v>
+        <v>1.828681504425456</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.841626899745202</v>
+        <v>1.854609605228783</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9364950367891869</v>
+        <v>0.7414545653546825</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.463337757389859</v>
+        <v>1.542707799829751</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.107880133761412</v>
+        <v>1.981816315041634</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8308897969454475</v>
+        <v>0.8473466073792831</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5207828922176517</v>
+        <v>0.439432414960936</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8342836760108071</v>
+        <v>0.833767852265705</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.08166413831043468</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.669985184496544</v>
+        <v>1.669985184496543</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4890557106063573</v>
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8022861378325195</v>
+        <v>-0.9857175914850593</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.355763676135534</v>
+        <v>-2.444393146769829</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.857415081345758</v>
+        <v>-1.930876666159169</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3020198928507111</v>
+        <v>0.4677528597771428</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.7557759975302916</v>
+        <v>-0.8348462163941559</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.7961176239216763</v>
+        <v>-0.7942190117698238</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5491744941328873</v>
+        <v>-0.5714695627375469</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.06235202492432956</v>
+        <v>0.2105520637304211</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.616430758038254</v>
+        <v>1.637968310816743</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.49170460818228</v>
+        <v>1.564659847211806</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.29688836059703</v>
+        <v>2.322864921240075</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.114025187064932</v>
+        <v>3.002570390225003</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.755905596426238</v>
+        <v>6.423541945030189</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.754985047552094</v>
+        <v>2.896357295512044</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.467480297395102</v>
+        <v>1.481715046239145</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>5.466843680680006</v>
+        <v>4.669431818836266</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.1767007863374557</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.965657291145446</v>
+        <v>0.9656572911454455</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.235798251101906</v>
@@ -949,7 +949,7 @@
         <v>0.08632860732272087</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4136865537834912</v>
+        <v>0.413686553783491</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.2179975097634058</v>
+        <v>-0.2041482664471615</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.7947604743410883</v>
+        <v>-0.7922748280640401</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.507839258106106</v>
+        <v>-0.5903035582853378</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1661891682064043</v>
+        <v>0.1551687926168546</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1040906960779764</v>
+        <v>-0.1025224870553173</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2489006244677763</v>
+        <v>-0.2460432675939718</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2140043160719327</v>
+        <v>-0.2260234836773214</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.0396165393920446</v>
+        <v>0.045469528986736</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.163924018632682</v>
+        <v>1.1397893417042</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.889878519705304</v>
+        <v>0.8834786005498286</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8861382134942654</v>
+        <v>0.8690120222785985</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.685900086568333</v>
+        <v>1.672992274210976</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7871328993670569</v>
+        <v>0.753544346393312</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3887864874648619</v>
+        <v>0.3725682473347022</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.530465361072342</v>
+        <v>0.5284613975101266</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8554087905517378</v>
+        <v>0.8344557154679926</v>
       </c>
     </row>
     <row r="16">
